--- a/v2/orders_matrix.xlsx
+++ b/v2/orders_matrix.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F873F8A-0A3E-1048-9A52-19CD8EEB27C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,120 +432,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q17"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -553,20 +592,19 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -580,21 +618,24 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -607,15 +648,16 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="5">
@@ -624,9 +666,7 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -638,15 +678,16 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="5">
@@ -658,7 +699,9 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -669,15 +712,16 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="5">
@@ -692,9 +736,7 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -704,15 +746,16 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="5">
@@ -741,15 +784,16 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="5">
@@ -770,7 +814,9 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -778,15 +824,16 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="5">
@@ -810,24 +857,23 @@
       <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="5">
@@ -854,21 +900,24 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="5">
@@ -898,22 +947,21 @@
       <c r="L14" s="5">
         <v>1</v>
       </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="5">
@@ -946,19 +994,22 @@
       <c r="M15" s="5">
         <v>1</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="5">
@@ -994,77 +1045,131 @@
       <c r="N16" s="5">
         <v>1</v>
       </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <f>SUM(B2:B16)</f>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:O17" si="0">SUM(C2:C16)</f>
+      <c r="C18" s="1">
+        <f>SUM(C3:C17)</f>
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:P18" si="0">SUM(D3:D17)</f>
         <v>12</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L18" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M18" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q18" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
-        <f>SUM(B17:P17)</f>
+      <c r="R18" s="1">
+        <f>SUM(C18:Q18)</f>
         <v>100</v>
       </c>
     </row>

--- a/v2/orders_matrix.xlsx
+++ b/v2/orders_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F873F8A-0A3E-1048-9A52-19CD8EEB27C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B8D4D-AA5C-1144-B822-671F42A881C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="1200" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/v2/orders_matrix.xlsx
+++ b/v2/orders_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B8D4D-AA5C-1144-B822-671F42A881C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FF75BE-9074-428B-8E56-9F1477413D4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1200" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Ec_-1</t>
   </si>
@@ -77,29 +76,437 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptors </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +525,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,17 +561,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,15 +1005,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="C1">
         <v>0</v>
       </c>
@@ -491,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -542,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>0</v>
       </c>
@@ -552,23 +1127,23 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -578,23 +1153,23 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>2</v>
       </c>
@@ -604,23 +1179,23 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3</v>
       </c>
@@ -630,27 +1205,27 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>4</v>
       </c>
@@ -660,27 +1235,27 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>5</v>
       </c>
@@ -690,31 +1265,31 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>6</v>
       </c>
@@ -724,31 +1299,31 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>7</v>
       </c>
@@ -758,35 +1333,35 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>8</v>
       </c>
@@ -796,37 +1371,37 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>9</v>
       </c>
@@ -836,37 +1411,37 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>10</v>
       </c>
@@ -876,41 +1451,41 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>11</v>
       </c>
@@ -920,41 +1495,41 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>12</v>
       </c>
@@ -964,45 +1539,45 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1012,45 +1587,45 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1060,49 +1635,49 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1173,7 +1748,630 @@
         <v>100</v>
       </c>
     </row>
+    <row r="20" spans="1:19" ht="14.4" thickBot="1"/>
+    <row r="21" spans="1:19" ht="15.6">
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="14.4">
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.6">
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.6">
+      <c r="C25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.6">
+      <c r="C26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.6">
+      <c r="C27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.6">
+      <c r="C28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="14.4">
+      <c r="C29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.4">
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.6">
+      <c r="C31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.6">
+      <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="3:19" ht="15.6">
+      <c r="C33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="3:19" ht="15.6">
+      <c r="C34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="3:19" ht="15.6">
+      <c r="C35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="3:19" ht="14.4">
+      <c r="C36" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36" s="9"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="3:19" ht="14.4" thickBot="1">
+      <c r="C37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="15">
+        <v>15</v>
+      </c>
+      <c r="E37" s="15">
+        <v>12</v>
+      </c>
+      <c r="F37" s="15">
+        <v>12</v>
+      </c>
+      <c r="G37" s="15">
+        <v>10</v>
+      </c>
+      <c r="H37" s="15">
+        <v>10</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8</v>
+      </c>
+      <c r="K37" s="15">
+        <v>7</v>
+      </c>
+      <c r="L37" s="15">
+        <v>5</v>
+      </c>
+      <c r="M37" s="15">
+        <v>5</v>
+      </c>
+      <c r="N37" s="15">
+        <v>3</v>
+      </c>
+      <c r="O37" s="15">
+        <v>3</v>
+      </c>
+      <c r="P37" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>1</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="16">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
